--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>623081.5035505549</v>
+        <v>647061.8093344112</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>895306.7723587523</v>
+        <v>895306.7723587521</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5639757.321660428</v>
+        <v>5639757.321660431</v>
       </c>
     </row>
     <row r="11">
@@ -656,76 +656,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>77.92691371295918</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>137.0062620734511</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>13.11818635818213</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>12.56746304287308</v>
       </c>
       <c r="I9" t="n">
-        <v>62.88143347497287</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>173.3217671684648</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,19 +1446,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>7.420889133809817</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>161.4151008513904</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1540,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>7.203367682519216</v>
       </c>
       <c r="I13" t="n">
-        <v>71.30468686766744</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>276.1565137023554</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="X14" t="n">
-        <v>45.58123541261001</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>34.27466406188685</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>60.02237271970518</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>7.203367682519216</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>94.25736106477139</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,76 +1841,76 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>141.0252816852793</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>222.4795457699687</v>
+      </c>
+      <c r="U17" t="n">
+        <v>251.3343897888113</v>
+      </c>
+      <c r="V17" t="n">
+        <v>180.7124674296862</v>
+      </c>
+      <c r="W17" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>243.2386572690345</v>
-      </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1974,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
-        <v>175.7569470849741</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>188.4427027973382</v>
       </c>
     </row>
     <row r="19">
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,64 +2087,64 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>243.2386572690347</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="X20" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>45.58123541261036</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>222.4795457699687</v>
-      </c>
-      <c r="U20" t="n">
-        <v>251.3343897888113</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>32.72456741584651</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>114.7124267810126</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>7.20336768251915</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="F23" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="E23" t="n">
-        <v>243.2386572690349</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>20.75911149906617</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y23" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U24" t="n">
-        <v>175.7569470849741</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>26.87913067617865</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,19 +2561,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>108.5352083273466</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>243.2386572690347</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>8.715646266429864</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>155.5935060462578</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.6773952840984929</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2801,10 +2801,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>243.2386572690349</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2852,10 +2852,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>243.2386572690349</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>276.1565137023554</v>
@@ -2871,22 +2871,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>16.30899232827604</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,7 +2934,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>161.4151008513904</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>94.25736106477142</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>243.2386572690349</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>243.2386572690345</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>68.70013939739736</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>175.7569470849741</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3244,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W34" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>243.2386572690347</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,58 +3281,58 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="I35" t="n">
-        <v>205.0481221176458</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>222.4795457699687</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="X35" t="n">
-        <v>91.86750308377582</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3354,13 +3354,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>89.38577778756957</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3396,16 +3396,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U36" t="n">
-        <v>175.7569470849741</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>7.20336768251915</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,13 +3506,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>243.2386572690347</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="X38" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>194.7430181736949</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>184.9545915265598</v>
       </c>
     </row>
     <row r="40">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>29.71014592494667</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,22 +3740,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G41" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>243.2386572690347</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>243.2386572690345</v>
       </c>
       <c r="W41" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U42" t="n">
-        <v>175.7569470849741</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>132.1099853733423</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E44" t="n">
-        <v>243.2386572690347</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>276.1565137023554</v>
+        <v>243.2386572690345</v>
       </c>
     </row>
     <row r="45">
@@ -4107,16 +4107,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U45" t="n">
-        <v>175.7569470849741</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>1.654403031528168</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>21.57990476584692</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4358,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304.9965798960495</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C3" t="n">
-        <v>130.5435506149225</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E3" t="n">
         <v>19.28114311021272</v>
@@ -4410,22 +4410,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4440,19 +4440,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>512.7568786610034</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y3" t="n">
-        <v>304.9965798960495</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="4">
@@ -4507,7 +4507,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
         <v>19.28114311021272</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>499.5061853699102</v>
+        <v>157.6713068207694</v>
       </c>
       <c r="C6" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4647,19 +4647,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>950.8064622195432</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W6" t="n">
-        <v>707.357685575443</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X6" t="n">
-        <v>499.5061853699102</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y6" t="n">
-        <v>499.5061853699102</v>
+        <v>325.8866438408374</v>
       </c>
     </row>
     <row r="7">
@@ -4741,10 +4741,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
         <v>19.28114311021272</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E8" t="n">
         <v>19.28114311021272</v>
@@ -4829,25 +4829,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>731.528039392485</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>317.2409336147255</v>
       </c>
       <c r="C9" t="n">
-        <v>789.6041262295092</v>
+        <v>317.2409336147255</v>
       </c>
       <c r="D9" t="n">
-        <v>640.669716568258</v>
+        <v>317.2409336147255</v>
       </c>
       <c r="E9" t="n">
-        <v>481.4322615628025</v>
+        <v>317.2409336147255</v>
       </c>
       <c r="F9" t="n">
-        <v>334.8977035896875</v>
+        <v>170.7063756416104</v>
       </c>
       <c r="G9" t="n">
-        <v>196.166878172303</v>
+        <v>31.97555022422594</v>
       </c>
       <c r="H9" t="n">
-        <v>82.7977425798823</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4884,7 +4884,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L9" t="n">
         <v>65.60123993063803</v>
@@ -4917,16 +4917,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4987,25 +4987,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>962.1762753293416</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C11" t="n">
-        <v>962.1762753293416</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D11" t="n">
-        <v>962.1762753293416</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E11" t="n">
-        <v>962.1762753293416</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F11" t="n">
-        <v>787.1037832399832</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G11" t="n">
-        <v>508.1578098032604</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412868</v>
+        <v>344.908559541287</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173955</v>
+        <v>586.3582880173958</v>
       </c>
       <c r="N11" t="n">
-        <v>817.082927982354</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901061</v>
+        <v>989.7620250901065</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5063,28 +5063,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>962.1762753293416</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="V11" t="n">
-        <v>962.1762753293416</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W11" t="n">
-        <v>962.1762753293416</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="X11" t="n">
-        <v>962.1762753293416</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="Y11" t="n">
-        <v>962.1762753293416</v>
+        <v>301.0384945329112</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.09252109618843</v>
+        <v>350.5759559603394</v>
       </c>
       <c r="C12" t="n">
-        <v>22.09252109618843</v>
+        <v>176.1229266792124</v>
       </c>
       <c r="D12" t="n">
-        <v>22.09252109618843</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618843</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318534</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K12" t="n">
         <v>165.799003153448</v>
       </c>
       <c r="L12" t="n">
-        <v>165.799003153448</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M12" t="n">
-        <v>439.1939517187798</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="N12" t="n">
-        <v>712.5889002841117</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O12" t="n">
-        <v>828.8278839945614</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P12" t="n">
         <v>1025.71200399185</v>
@@ -5142,28 +5142,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S12" t="n">
-        <v>941.5804983938758</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T12" t="n">
-        <v>739.7005984219851</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="U12" t="n">
-        <v>511.4819860561328</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="V12" t="n">
-        <v>276.3298778243901</v>
+        <v>773.028649708609</v>
       </c>
       <c r="W12" t="n">
-        <v>22.09252109618843</v>
+        <v>518.7912929804074</v>
       </c>
       <c r="X12" t="n">
-        <v>22.09252109618843</v>
+        <v>518.7912929804074</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.09252109618843</v>
+        <v>518.7912929804074</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="F13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="G13" t="n">
-        <v>198.9927170031358</v>
+        <v>29.36865006843007</v>
       </c>
       <c r="H13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N13" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C14" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D14" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E14" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F14" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G14" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H14" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I14" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K14" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N14" t="n">
-        <v>817.082927982354</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P14" t="n">
         <v>1099.465256491931</v>
@@ -5306,22 +5306,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T14" t="n">
-        <v>879.8992409003624</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U14" t="n">
-        <v>626.0261199015631</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V14" t="n">
-        <v>347.0801464648404</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W14" t="n">
-        <v>68.13417302811774</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X14" t="n">
-        <v>22.09252109618843</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.09252109618843</v>
+        <v>301.0384945329112</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.09252109618843</v>
+        <v>815.7678252914357</v>
       </c>
       <c r="C15" t="n">
-        <v>22.09252109618843</v>
+        <v>815.7678252914357</v>
       </c>
       <c r="D15" t="n">
-        <v>22.09252109618843</v>
+        <v>666.8334156301844</v>
       </c>
       <c r="E15" t="n">
-        <v>22.09252109618843</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="F15" t="n">
-        <v>22.09252109618843</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G15" t="n">
-        <v>22.09252109618843</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H15" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I15" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J15" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K15" t="n">
         <v>159.4923828364511</v>
       </c>
       <c r="L15" t="n">
-        <v>159.4923828364511</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M15" t="n">
-        <v>432.8873314017829</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="N15" t="n">
-        <v>641.2451212288495</v>
+        <v>679.0427979944841</v>
       </c>
       <c r="O15" t="n">
-        <v>907.7419348121333</v>
+        <v>945.5396115777679</v>
       </c>
       <c r="P15" t="n">
         <v>1104.626054809422</v>
@@ -5379,28 +5379,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R15" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S15" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T15" t="n">
-        <v>947.5520986275179</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U15" t="n">
-        <v>719.3334862616656</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V15" t="n">
-        <v>484.1813780299229</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W15" t="n">
-        <v>229.9440213017212</v>
+        <v>850.3886980812204</v>
       </c>
       <c r="X15" t="n">
-        <v>22.09252109618843</v>
+        <v>850.3886980812204</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.09252109618843</v>
+        <v>850.3886980812204</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="F16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="G16" t="n">
-        <v>22.09252109618843</v>
+        <v>29.36865006843007</v>
       </c>
       <c r="H16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L16" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N16" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O16" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P16" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q16" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C17" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D17" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E17" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F17" t="n">
         <v>22.09252109618843</v>
@@ -5519,16 +5519,16 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L17" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M17" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N17" t="n">
-        <v>817.082927982354</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P17" t="n">
         <v>1099.465256491931</v>
@@ -5537,28 +5537,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R17" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S17" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T17" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="U17" t="n">
-        <v>1104.626054809422</v>
+        <v>483.5763404214831</v>
       </c>
       <c r="V17" t="n">
-        <v>1104.626054809422</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="W17" t="n">
-        <v>858.9304414063565</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X17" t="n">
-        <v>858.9304414063565</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y17" t="n">
-        <v>579.9844679696338</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5598,16 @@
         <v>22.09252109618843</v>
       </c>
       <c r="L18" t="n">
-        <v>268.2479876888894</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M18" t="n">
-        <v>541.6429362542212</v>
+        <v>367.8501726635175</v>
       </c>
       <c r="N18" t="n">
-        <v>815.037884819553</v>
+        <v>641.2451212288494</v>
       </c>
       <c r="O18" t="n">
-        <v>1081.534698402837</v>
+        <v>907.7419348121332</v>
       </c>
       <c r="P18" t="n">
         <v>1104.626054809422</v>
@@ -5622,19 +5622,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T18" t="n">
-        <v>1104.626054809422</v>
+        <v>902.746154837531</v>
       </c>
       <c r="U18" t="n">
-        <v>927.0937850266196</v>
+        <v>674.5275424716787</v>
       </c>
       <c r="V18" t="n">
-        <v>691.9416767948768</v>
+        <v>674.5275424716787</v>
       </c>
       <c r="W18" t="n">
-        <v>437.7043200666752</v>
+        <v>420.290185743477</v>
       </c>
       <c r="X18" t="n">
-        <v>229.8528198611423</v>
+        <v>212.4386855379442</v>
       </c>
       <c r="Y18" t="n">
         <v>22.09252109618843</v>
@@ -5677,34 +5677,34 @@
         <v>22.09252109618843</v>
       </c>
       <c r="L19" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N19" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O19" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P19" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R19" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V19" t="n">
         <v>22.09252109618843</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>579.9844679696338</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C20" t="n">
-        <v>579.9844679696338</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D20" t="n">
-        <v>579.9844679696338</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E20" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F20" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G20" t="n">
         <v>22.09252109618843</v>
@@ -5774,28 +5774,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R20" t="n">
-        <v>1058.584402877492</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S20" t="n">
-        <v>1058.584402877492</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T20" t="n">
-        <v>833.857588968433</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U20" t="n">
-        <v>579.9844679696338</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="V20" t="n">
-        <v>579.9844679696338</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="W20" t="n">
         <v>579.9844679696338</v>
       </c>
       <c r="X20" t="n">
-        <v>579.9844679696338</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="Y20" t="n">
-        <v>579.9844679696338</v>
+        <v>301.0384945329111</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>615.4536795074641</v>
+        <v>109.772397078701</v>
       </c>
       <c r="C21" t="n">
-        <v>615.4536795074641</v>
+        <v>109.772397078701</v>
       </c>
       <c r="D21" t="n">
-        <v>466.5192698462128</v>
+        <v>109.772397078701</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2818148407573</v>
+        <v>109.772397078701</v>
       </c>
       <c r="F21" t="n">
-        <v>160.7472568676422</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G21" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H21" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I21" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J21" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K21" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="L21" t="n">
-        <v>268.2479876888894</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M21" t="n">
-        <v>541.6429362542212</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N21" t="n">
-        <v>815.037884819553</v>
+        <v>821.34450513655</v>
       </c>
       <c r="O21" t="n">
-        <v>1081.534698402837</v>
+        <v>1087.841318719834</v>
       </c>
       <c r="P21" t="n">
         <v>1104.626054809422</v>
@@ -5859,22 +5859,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T21" t="n">
-        <v>902.746154837531</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U21" t="n">
-        <v>902.746154837531</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V21" t="n">
-        <v>902.746154837531</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W21" t="n">
-        <v>648.5087981093293</v>
+        <v>525.3841960491877</v>
       </c>
       <c r="X21" t="n">
-        <v>648.5087981093293</v>
+        <v>317.5326958436549</v>
       </c>
       <c r="Y21" t="n">
-        <v>648.5087981093293</v>
+        <v>109.772397078701</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="C22" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="D22" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="E22" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="F22" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G22" t="n">
         <v>22.09252109618843</v>
@@ -5941,19 +5941,19 @@
         <v>198.9927170031358</v>
       </c>
       <c r="U22" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V22" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W22" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X22" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>546.7341079359767</v>
+        <v>600.95326746364</v>
       </c>
       <c r="C23" t="n">
-        <v>546.7341079359767</v>
+        <v>600.95326746364</v>
       </c>
       <c r="D23" t="n">
-        <v>267.788134499254</v>
+        <v>600.95326746364</v>
       </c>
       <c r="E23" t="n">
-        <v>22.09252109618843</v>
+        <v>322.0072940269174</v>
       </c>
       <c r="F23" t="n">
-        <v>22.09252109618843</v>
+        <v>43.06132059019467</v>
       </c>
       <c r="G23" t="n">
         <v>22.09252109618843</v>
@@ -6017,22 +6017,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T23" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U23" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="V23" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="W23" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="X23" t="n">
-        <v>1104.626054809422</v>
+        <v>600.95326746364</v>
       </c>
       <c r="Y23" t="n">
-        <v>825.6800813726993</v>
+        <v>600.95326746364</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22.09252109618843</v>
+        <v>343.0801083504305</v>
       </c>
       <c r="C24" t="n">
-        <v>22.09252109618843</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="D24" t="n">
-        <v>22.09252109618843</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="E24" t="n">
-        <v>22.09252109618843</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F24" t="n">
         <v>22.09252109618843</v>
@@ -6069,19 +6069,19 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K24" t="n">
-        <v>121.6947060708166</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L24" t="n">
-        <v>367.8501726635175</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="M24" t="n">
-        <v>641.2451212288494</v>
+        <v>432.8873314017829</v>
       </c>
       <c r="N24" t="n">
-        <v>641.2451212288494</v>
+        <v>706.2822799671148</v>
       </c>
       <c r="O24" t="n">
-        <v>907.7419348121332</v>
+        <v>972.7790935503987</v>
       </c>
       <c r="P24" t="n">
         <v>1104.626054809422</v>
@@ -6090,28 +6090,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R24" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S24" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="T24" t="n">
-        <v>1104.626054809422</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="U24" t="n">
-        <v>927.0937850266196</v>
+        <v>578.0822456026084</v>
       </c>
       <c r="V24" t="n">
-        <v>691.9416767948768</v>
+        <v>578.0822456026084</v>
       </c>
       <c r="W24" t="n">
-        <v>437.7043200666752</v>
+        <v>550.9316085559633</v>
       </c>
       <c r="X24" t="n">
-        <v>229.8528198611423</v>
+        <v>343.0801083504305</v>
       </c>
       <c r="Y24" t="n">
-        <v>22.09252109618843</v>
+        <v>343.0801083504305</v>
       </c>
     </row>
     <row r="25">
@@ -6178,13 +6178,13 @@
         <v>198.9927170031358</v>
       </c>
       <c r="U25" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V25" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W25" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X25" t="n">
         <v>22.09252109618843</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>301.0384945329111</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="C26" t="n">
-        <v>301.0384945329111</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="D26" t="n">
-        <v>301.0384945329111</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="E26" t="n">
-        <v>301.0384945329111</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="F26" t="n">
-        <v>301.0384945329111</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="G26" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H26" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I26" t="n">
         <v>22.09252109618843</v>
@@ -6248,28 +6248,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R26" t="n">
-        <v>1104.626054809422</v>
+        <v>994.9945312464456</v>
       </c>
       <c r="S26" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="T26" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="U26" t="n">
-        <v>858.9304414063565</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="V26" t="n">
-        <v>858.9304414063565</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="W26" t="n">
-        <v>579.9844679696338</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="X26" t="n">
-        <v>579.9844679696338</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="Y26" t="n">
-        <v>301.0384945329111</v>
+        <v>508.1578098032604</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>22.09252109618843</v>
+        <v>526.6793176119302</v>
       </c>
       <c r="C27" t="n">
-        <v>22.09252109618843</v>
+        <v>517.8756345145263</v>
       </c>
       <c r="D27" t="n">
-        <v>22.09252109618843</v>
+        <v>368.941224853275</v>
       </c>
       <c r="E27" t="n">
-        <v>22.09252109618843</v>
+        <v>368.941224853275</v>
       </c>
       <c r="F27" t="n">
-        <v>22.09252109618843</v>
+        <v>222.40666688016</v>
       </c>
       <c r="G27" t="n">
-        <v>22.09252109618843</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H27" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I27" t="n">
         <v>22.09252109618843</v>
@@ -6306,16 +6306,16 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K27" t="n">
-        <v>114.7965710887686</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L27" t="n">
-        <v>360.9520376814696</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M27" t="n">
-        <v>634.3469862468014</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="N27" t="n">
-        <v>907.7419348121332</v>
+        <v>641.2451212288494</v>
       </c>
       <c r="O27" t="n">
         <v>907.7419348121332</v>
@@ -6333,22 +6333,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T27" t="n">
-        <v>947.4608971869391</v>
+        <v>902.746154837531</v>
       </c>
       <c r="U27" t="n">
-        <v>719.2422848210867</v>
+        <v>902.746154837531</v>
       </c>
       <c r="V27" t="n">
-        <v>484.090176589344</v>
+        <v>902.746154837531</v>
       </c>
       <c r="W27" t="n">
-        <v>229.8528198611423</v>
+        <v>902.746154837531</v>
       </c>
       <c r="X27" t="n">
-        <v>229.8528198611423</v>
+        <v>694.8946546319982</v>
       </c>
       <c r="Y27" t="n">
-        <v>22.09252109618843</v>
+        <v>694.8946546319982</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="C28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="D28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="E28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="F28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="G28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="H28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="I28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="J28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="K28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="L28" t="n">
-        <v>58.70189726492714</v>
+        <v>964.335235071213</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6904745160686</v>
+        <v>1013.323812322354</v>
       </c>
       <c r="N28" t="n">
-        <v>160.9488293168851</v>
+        <v>1066.582167123171</v>
       </c>
       <c r="O28" t="n">
-        <v>194.1252445754622</v>
+        <v>1099.758582381748</v>
       </c>
       <c r="P28" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q28" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R28" t="n">
-        <v>198.9927170031358</v>
+        <v>928.4100965631799</v>
       </c>
       <c r="S28" t="n">
-        <v>198.9927170031358</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="T28" t="n">
-        <v>198.9927170031358</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="U28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="V28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="W28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="X28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="Y28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22.09252109618843</v>
+        <v>546.7341079359767</v>
       </c>
       <c r="C29" t="n">
-        <v>22.09252109618843</v>
+        <v>546.7341079359767</v>
       </c>
       <c r="D29" t="n">
-        <v>22.09252109618843</v>
+        <v>546.7341079359767</v>
       </c>
       <c r="E29" t="n">
-        <v>22.09252109618843</v>
+        <v>546.7341079359767</v>
       </c>
       <c r="F29" t="n">
-        <v>22.09252109618843</v>
+        <v>267.788134499254</v>
       </c>
       <c r="G29" t="n">
         <v>22.09252109618843</v>
@@ -6500,13 +6500,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W29" t="n">
+        <v>1104.626054809422</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1104.626054809422</v>
+      </c>
+      <c r="Y29" t="n">
         <v>825.6800813726993</v>
-      </c>
-      <c r="X29" t="n">
-        <v>579.9844679696338</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>301.0384945329111</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22.09252109618843</v>
+        <v>518.7912929804072</v>
       </c>
       <c r="C30" t="n">
-        <v>22.09252109618843</v>
+        <v>344.3382636992802</v>
       </c>
       <c r="D30" t="n">
-        <v>22.09252109618843</v>
+        <v>344.3382636992802</v>
       </c>
       <c r="E30" t="n">
-        <v>22.09252109618843</v>
+        <v>185.1008086938247</v>
       </c>
       <c r="F30" t="n">
-        <v>22.09252109618843</v>
+        <v>38.56625072070969</v>
       </c>
       <c r="G30" t="n">
-        <v>22.09252109618843</v>
+        <v>38.56625072070969</v>
       </c>
       <c r="H30" t="n">
         <v>22.09252109618843</v>
@@ -6540,52 +6540,52 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J30" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K30" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L30" t="n">
-        <v>405.6478494291521</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M30" t="n">
-        <v>405.6478494291521</v>
+        <v>685.3494183114808</v>
       </c>
       <c r="N30" t="n">
-        <v>641.2451212288494</v>
+        <v>958.7443668768126</v>
       </c>
       <c r="O30" t="n">
-        <v>907.7419348121332</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P30" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q30" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R30" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S30" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="T30" t="n">
-        <v>902.746154837531</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="U30" t="n">
-        <v>674.5275424716787</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="V30" t="n">
-        <v>439.3754342399359</v>
+        <v>773.0286497086088</v>
       </c>
       <c r="W30" t="n">
-        <v>185.1380775117343</v>
+        <v>518.7912929804072</v>
       </c>
       <c r="X30" t="n">
-        <v>22.09252109618843</v>
+        <v>518.7912929804072</v>
       </c>
       <c r="Y30" t="n">
-        <v>22.09252109618843</v>
+        <v>518.7912929804072</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L31" t="n">
-        <v>964.335235071213</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M31" t="n">
-        <v>1013.323812322354</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N31" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O31" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P31" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q31" t="n">
-        <v>1104.626054809422</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="R31" t="n">
-        <v>1104.626054809422</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="S31" t="n">
-        <v>1104.626054809422</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="T31" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U31" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>546.7341079359767</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C32" t="n">
-        <v>546.7341079359767</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="D32" t="n">
-        <v>546.7341079359767</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E32" t="n">
-        <v>546.7341079359767</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F32" t="n">
-        <v>267.788134499254</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G32" t="n">
         <v>22.09252109618843</v>
@@ -6734,16 +6734,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V32" t="n">
-        <v>825.6800813726993</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W32" t="n">
-        <v>546.7341079359767</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X32" t="n">
-        <v>546.7341079359767</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y32" t="n">
-        <v>546.7341079359767</v>
+        <v>858.9304414063565</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22.09252109618843</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="C33" t="n">
-        <v>22.09252109618843</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="D33" t="n">
-        <v>22.09252109618843</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="E33" t="n">
-        <v>22.09252109618843</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="F33" t="n">
-        <v>22.09252109618843</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="G33" t="n">
-        <v>22.09252109618843</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="H33" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I33" t="n">
         <v>22.09252109618843</v>
@@ -6780,22 +6780,22 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K33" t="n">
-        <v>121.6947060708166</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L33" t="n">
-        <v>367.8501726635175</v>
+        <v>212.4252932779023</v>
       </c>
       <c r="M33" t="n">
-        <v>641.2451212288494</v>
+        <v>485.8202418432341</v>
       </c>
       <c r="N33" t="n">
-        <v>641.2451212288494</v>
+        <v>759.2151904085659</v>
       </c>
       <c r="O33" t="n">
-        <v>907.7419348121332</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P33" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q33" t="n">
         <v>1104.626054809422</v>
@@ -6810,19 +6810,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U33" t="n">
-        <v>927.0937850266196</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V33" t="n">
-        <v>691.9416767948768</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W33" t="n">
-        <v>437.7043200666752</v>
+        <v>387.0179774836251</v>
       </c>
       <c r="X33" t="n">
-        <v>229.8528198611423</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="Y33" t="n">
-        <v>22.09252109618843</v>
+        <v>179.1664772780923</v>
       </c>
     </row>
     <row r="34">
@@ -6892,7 +6892,7 @@
         <v>198.9927170031358</v>
       </c>
       <c r="V34" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W34" t="n">
         <v>22.09252109618843</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>508.1578098032604</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="C35" t="n">
-        <v>508.1578098032604</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D35" t="n">
-        <v>508.1578098032604</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="E35" t="n">
-        <v>508.1578098032604</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F35" t="n">
-        <v>508.1578098032604</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G35" t="n">
-        <v>508.1578098032604</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H35" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I35" t="n">
         <v>22.09252109618843</v>
@@ -6965,22 +6965,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T35" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U35" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V35" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W35" t="n">
-        <v>600.95326746364</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X35" t="n">
-        <v>508.1578098032604</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y35" t="n">
-        <v>508.1578098032604</v>
+        <v>825.6800813726991</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22.09252109618843</v>
+        <v>258.9157435011919</v>
       </c>
       <c r="C36" t="n">
-        <v>22.09252109618843</v>
+        <v>258.9157435011919</v>
       </c>
       <c r="D36" t="n">
-        <v>22.09252109618843</v>
+        <v>258.9157435011919</v>
       </c>
       <c r="E36" t="n">
-        <v>22.09252109618843</v>
+        <v>258.9157435011919</v>
       </c>
       <c r="F36" t="n">
-        <v>22.09252109618843</v>
+        <v>112.3811855280769</v>
       </c>
       <c r="G36" t="n">
-        <v>22.09252109618843</v>
+        <v>112.3811855280769</v>
       </c>
       <c r="H36" t="n">
         <v>22.09252109618843</v>
@@ -7017,19 +7017,19 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K36" t="n">
-        <v>22.09252109618843</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L36" t="n">
-        <v>268.2479876888894</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M36" t="n">
-        <v>541.6429362542212</v>
+        <v>679.0427979944839</v>
       </c>
       <c r="N36" t="n">
-        <v>815.037884819553</v>
+        <v>679.0427979944839</v>
       </c>
       <c r="O36" t="n">
-        <v>1081.534698402837</v>
+        <v>907.7419348121332</v>
       </c>
       <c r="P36" t="n">
         <v>1104.626054809422</v>
@@ -7044,22 +7044,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T36" t="n">
-        <v>1104.626054809422</v>
+        <v>902.746154837531</v>
       </c>
       <c r="U36" t="n">
-        <v>927.0937850266196</v>
+        <v>674.5275424716787</v>
       </c>
       <c r="V36" t="n">
-        <v>691.9416767948768</v>
+        <v>674.5275424716787</v>
       </c>
       <c r="W36" t="n">
-        <v>437.7043200666752</v>
+        <v>674.5275424716787</v>
       </c>
       <c r="X36" t="n">
-        <v>229.8528198611423</v>
+        <v>466.6760422661458</v>
       </c>
       <c r="Y36" t="n">
-        <v>22.09252109618843</v>
+        <v>258.9157435011919</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>927.7258589024743</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="C37" t="n">
-        <v>927.7258589024743</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="D37" t="n">
-        <v>927.7258589024743</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="E37" t="n">
-        <v>927.7258589024743</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="F37" t="n">
-        <v>927.7258589024743</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G37" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H37" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I37" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J37" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K37" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L37" t="n">
-        <v>964.335235071213</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M37" t="n">
-        <v>1013.323812322354</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N37" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O37" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X37" t="n">
-        <v>927.7258589024743</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y37" t="n">
-        <v>927.7258589024743</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>546.7341079359765</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="C38" t="n">
-        <v>546.7341079359765</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="D38" t="n">
         <v>546.7341079359765</v>
       </c>
       <c r="E38" t="n">
-        <v>267.7881344992538</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="F38" t="n">
         <v>267.7881344992538</v>
@@ -7211,13 +7211,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W38" t="n">
+        <v>1104.626054809422</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1104.626054809422</v>
+      </c>
+      <c r="Y38" t="n">
         <v>825.6800813726991</v>
-      </c>
-      <c r="X38" t="n">
-        <v>546.7341079359765</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>546.7341079359765</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>22.09252109618843</v>
+        <v>455.7143781518895</v>
       </c>
       <c r="C39" t="n">
-        <v>22.09252109618843</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="D39" t="n">
-        <v>22.09252109618843</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="E39" t="n">
-        <v>22.09252109618843</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="F39" t="n">
-        <v>22.09252109618843</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="G39" t="n">
-        <v>22.09252109618843</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H39" t="n">
         <v>22.09252109618843</v>
@@ -7251,22 +7251,22 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J39" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K39" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L39" t="n">
-        <v>268.2479876888894</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M39" t="n">
-        <v>541.6429362542212</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N39" t="n">
-        <v>815.037884819553</v>
+        <v>821.34450513655</v>
       </c>
       <c r="O39" t="n">
-        <v>1081.534698402837</v>
+        <v>1087.841318719834</v>
       </c>
       <c r="P39" t="n">
         <v>1104.626054809422</v>
@@ -7284,19 +7284,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U39" t="n">
-        <v>876.4074424435694</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V39" t="n">
-        <v>641.2553342118267</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W39" t="n">
-        <v>387.0179774836251</v>
+        <v>850.3886980812201</v>
       </c>
       <c r="X39" t="n">
-        <v>190.3078581162565</v>
+        <v>642.5371978756873</v>
       </c>
       <c r="Y39" t="n">
-        <v>190.3078581162565</v>
+        <v>455.7143781518895</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="C40" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="D40" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="E40" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F40" t="n">
         <v>22.09252109618843</v>
@@ -7336,46 +7336,46 @@
         <v>22.09252109618843</v>
       </c>
       <c r="L40" t="n">
-        <v>58.70189726492714</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N40" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O40" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P40" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q40" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R40" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S40" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T40" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="U40" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="V40" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="W40" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="X40" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="Y40" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>825.6800813726991</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="C41" t="n">
-        <v>825.6800813726991</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D41" t="n">
-        <v>546.7341079359765</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E41" t="n">
-        <v>546.7341079359765</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F41" t="n">
-        <v>546.7341079359765</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G41" t="n">
-        <v>267.7881344992538</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H41" t="n">
         <v>22.09252109618843</v>
@@ -7415,7 +7415,7 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L41" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M41" t="n">
         <v>586.3582880173956</v>
@@ -7424,7 +7424,7 @@
         <v>817.0829279823542</v>
       </c>
       <c r="O41" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P41" t="n">
         <v>1099.465256491931</v>
@@ -7445,16 +7445,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V41" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="W41" t="n">
-        <v>825.6800813726991</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="X41" t="n">
-        <v>825.6800813726991</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="Y41" t="n">
-        <v>825.6800813726991</v>
+        <v>858.9304414063565</v>
       </c>
     </row>
     <row r="42">
@@ -7488,43 +7488,43 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J42" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K42" t="n">
-        <v>22.09252109618843</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L42" t="n">
-        <v>268.2479876888894</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M42" t="n">
-        <v>367.8501726635175</v>
+        <v>562.3310704112774</v>
       </c>
       <c r="N42" t="n">
-        <v>641.2451212288494</v>
+        <v>562.3310704112774</v>
       </c>
       <c r="O42" t="n">
-        <v>907.7419348121332</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="P42" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q42" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R42" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S42" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="T42" t="n">
-        <v>1104.626054809422</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="U42" t="n">
-        <v>927.0937850266196</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="V42" t="n">
-        <v>691.9416767948768</v>
+        <v>571.1487497367179</v>
       </c>
       <c r="W42" t="n">
         <v>437.7043200666752</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L43" t="n">
-        <v>964.335235071213</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M43" t="n">
-        <v>1013.323812322354</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N43" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O43" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P43" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q43" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R43" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="T43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y43" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>546.7341079359765</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="C44" t="n">
-        <v>267.7881344992538</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D44" t="n">
-        <v>267.7881344992538</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="E44" t="n">
-        <v>22.09252109618843</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F44" t="n">
         <v>22.09252109618843</v>
@@ -7652,7 +7652,7 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L44" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M44" t="n">
         <v>586.3582880173956</v>
@@ -7661,7 +7661,7 @@
         <v>817.0829279823542</v>
       </c>
       <c r="O44" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P44" t="n">
         <v>1099.465256491931</v>
@@ -7691,7 +7691,7 @@
         <v>1104.626054809422</v>
       </c>
       <c r="Y44" t="n">
-        <v>825.6800813726991</v>
+        <v>858.9304414063565</v>
       </c>
     </row>
     <row r="45">
@@ -7755,13 +7755,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T45" t="n">
-        <v>1104.626054809422</v>
+        <v>902.746154837531</v>
       </c>
       <c r="U45" t="n">
-        <v>927.0937850266196</v>
+        <v>674.5275424716787</v>
       </c>
       <c r="V45" t="n">
-        <v>691.9416767948768</v>
+        <v>439.3754342399359</v>
       </c>
       <c r="W45" t="n">
         <v>437.7043200666752</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C46" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D46" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E46" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F46" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="G46" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="H46" t="n">
-        <v>22.09252109618843</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="I46" t="n">
         <v>22.09252109618843</v>
@@ -7831,25 +7831,25 @@
         <v>198.9927170031358</v>
       </c>
       <c r="S46" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T46" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U46" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V46" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W46" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X46" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y46" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L9" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8772,16 +8772,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>122.1984598562865</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>399.2039605324505</v>
+        <v>274.9430030574977</v>
       </c>
       <c r="N12" t="n">
-        <v>387.9064735273546</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O12" t="n">
-        <v>242.0867335465941</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9009,19 +9009,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>122.1984598562865</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>399.2039605324505</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N15" t="n">
-        <v>322.2123737917331</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>280.2832971594983</v>
       </c>
       <c r="Q15" t="n">
         <v>130.3661252938572</v>
@@ -9243,13 +9243,13 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K18" t="n">
-        <v>125.6774978810002</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>399.2039605324505</v>
+        <v>223.6557144812345</v>
       </c>
       <c r="N18" t="n">
         <v>387.9064735273546</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>142.9145225887215</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3661252938572</v>
+        <v>130.3661252938571</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>125.6774978810001</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>142.9145225887213</v>
+        <v>136.5441990361991</v>
       </c>
       <c r="Q21" t="n">
         <v>130.3661252938572</v>
@@ -9717,22 +9717,22 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K24" t="n">
-        <v>226.2857655321397</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M24" t="n">
         <v>399.2039605324504</v>
       </c>
       <c r="N24" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>252.7686689043155</v>
       </c>
       <c r="Q24" t="n">
         <v>130.3661252938572</v>
@@ -9954,19 +9954,19 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K27" t="n">
-        <v>219.3179524189599</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>399.2039605324504</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N27" t="n">
-        <v>387.9064735273547</v>
+        <v>349.7270020469157</v>
       </c>
       <c r="O27" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>123.047446830095</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N30" t="n">
-        <v>349.7270020469157</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>192.3176965815309</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K33" t="n">
-        <v>226.2857655321397</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>314.453785292361</v>
       </c>
       <c r="M33" t="n">
         <v>399.2039605324504</v>
       </c>
       <c r="N33" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K36" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,13 +10674,13 @@
         <v>399.2039605324504</v>
       </c>
       <c r="N36" t="n">
-        <v>387.9064735273546</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>355.6828477962906</v>
       </c>
       <c r="P36" t="n">
-        <v>142.9145225887213</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>130.3661252938572</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>125.6774978810001</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>142.9145225887213</v>
+        <v>136.5441990361991</v>
       </c>
       <c r="Q39" t="n">
         <v>130.3661252938572</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599045</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>223.6557144812346</v>
+        <v>274.9430030574975</v>
       </c>
       <c r="N42" t="n">
-        <v>387.9064735273546</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22568,7 +22568,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,13 +22626,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>37.29528213497613</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22680,19 +22680,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22747,10 +22747,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22793,13 +22793,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22829,19 +22829,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,19 +22860,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>35.70223691486467</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22914,22 +22914,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>219.6824007912431</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23024,10 +23024,10 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23069,10 +23069,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23097,16 +23097,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -23115,10 +23115,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.66798119362338</v>
       </c>
       <c r="I9" t="n">
-        <v>26.5151993764422</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23157,10 +23157,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23182,7 +23182,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23200,10 +23200,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23227,7 +23227,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>206.4583023941599</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>233.5542785732466</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>61.87643319194541</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
         <v>205.8118405263978</v>
@@ -23312,16 +23312,16 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>8.095732519776618</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,19 +23334,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>140.0241764308289</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.2681884137393</v>
@@ -23355,7 +23355,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>8.868871769942729</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23428,19 +23428,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>154.462316415358</v>
       </c>
       <c r="I13" t="n">
-        <v>82.24660231436351</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23546,22 +23546,22 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V14" t="n">
-        <v>51.59574476777948</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>73.08445501505759</v>
+        <v>106.0023114483784</v>
       </c>
       <c r="X14" t="n">
-        <v>324.149865265859</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>132.2585195879805</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,25 +23619,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
-        <v>139.8387282524667</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6656840978772</v>
+        <v>154.462316415358</v>
       </c>
       <c r="I16" t="n">
         <v>153.551289182031</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R16" t="n">
-        <v>80.19643759900804</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S16" t="n">
         <v>222.9160118599466</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.1619485273195</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>147.0397910404487</v>
       </c>
       <c r="W17" t="n">
-        <v>106.0023114483785</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23829,7 +23829,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I18" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>95.48084390037957</v>
+        <v>95.48084390037955</v>
       </c>
       <c r="S18" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T18" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>50.17947915721973</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>17.23999297996616</v>
       </c>
     </row>
     <row r="19">
@@ -23914,7 +23914,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K19" t="n">
-        <v>14.93225064571201</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S19" t="n">
-        <v>47.78481791206877</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T19" t="n">
         <v>227.6757534850358</v>
@@ -23947,7 +23947,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595007</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,13 +23975,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H20" t="n">
         <v>338.0329468943008</v>
@@ -24014,25 +24014,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>95.44404627266894</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>8.095732519776504</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>133.8086162340208</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H21" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I21" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24099,22 +24099,22 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>136.982556379907</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>161.6656840978772</v>
@@ -24181,7 +24181,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U22" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>211.3812856695756</v>
       </c>
     </row>
     <row r="23">
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>78.52652791832753</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>138.6917128032269</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G23" t="n">
-        <v>415.1619485273195</v>
+        <v>394.4028370282533</v>
       </c>
       <c r="H23" t="n">
         <v>338.0329468943008</v>
@@ -24257,7 +24257,7 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3343897888113</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y23" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,7 +24294,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.2681884137393</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T24" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>50.17947915721973</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>224.815852484741</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24418,7 +24418,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U25" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>50.57846144115928</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24449,19 +24449,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H26" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I26" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>141.0252816852793</v>
+        <v>32.49007335793276</v>
       </c>
       <c r="S26" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U26" t="n">
-        <v>8.095732519776504</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>163.9928527218859</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H27" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24573,22 +24573,22 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T27" t="n">
-        <v>44.26759492591404</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24646,16 +24646,16 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R28" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>222.9160118599466</v>
+        <v>222.2386165758481</v>
       </c>
       <c r="T28" t="n">
         <v>227.6757534850358</v>
       </c>
       <c r="U28" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24689,10 +24689,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G29" t="n">
-        <v>415.1619485273195</v>
+        <v>171.9232912582845</v>
       </c>
       <c r="H29" t="n">
         <v>338.0329468943008</v>
@@ -24740,10 +24740,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>126.4924434094342</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>110.0814249536982</v>
@@ -24759,22 +24759,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H30" t="n">
-        <v>111.5079271034444</v>
+        <v>95.1989347751684</v>
       </c>
       <c r="I30" t="n">
         <v>86.80307722268741</v>
@@ -24804,16 +24804,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,7 +24822,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>44.35788435208707</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>174.4537986637794</v>
@@ -24889,13 +24889,13 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T31" t="n">
-        <v>227.6757534850358</v>
+        <v>133.4183924202644</v>
       </c>
       <c r="U31" t="n">
         <v>286.3155846423218</v>
       </c>
       <c r="V31" t="n">
-        <v>77.00644937595013</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>171.9232912582845</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H32" t="n">
         <v>338.0329468943008</v>
@@ -24974,16 +24974,16 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V32" t="n">
-        <v>51.59574476777948</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>142.9992813870191</v>
       </c>
     </row>
     <row r="33">
@@ -25011,10 +25011,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H33" t="n">
-        <v>111.5079271034444</v>
+        <v>42.80778770604708</v>
       </c>
       <c r="I33" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25050,7 +25050,7 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U33" t="n">
-        <v>50.17947915721973</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25132,10 +25132,10 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595013</v>
       </c>
       <c r="W34" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,13 +25154,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>138.6917128032271</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25169,10 +25169,10 @@
         <v>415.1619485273195</v>
       </c>
       <c r="H35" t="n">
-        <v>61.87643319194541</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,7 +25205,7 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U35" t="n">
         <v>251.3343897888113</v>
@@ -25214,13 +25214,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>277.8635975946932</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="36">
@@ -25242,13 +25242,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5079271034444</v>
+        <v>22.12214931587488</v>
       </c>
       <c r="I36" t="n">
         <v>86.80307722268741</v>
@@ -25284,16 +25284,16 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T36" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>50.17947915721973</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>172.6286124994182</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>161.6656840978772</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>50.57846144115928</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,13 +25394,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E38" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G38" t="n">
         <v>171.9232912582848</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25479,16 +25479,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25524,19 +25524,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>11.02996702978254</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>20.72810425074454</v>
       </c>
     </row>
     <row r="40">
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.9278262653587</v>
@@ -25597,10 +25597,10 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S40" t="n">
-        <v>47.78481791206875</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T40" t="n">
-        <v>227.6757534850358</v>
+        <v>197.9656075600891</v>
       </c>
       <c r="U40" t="n">
         <v>286.3155846423218</v>
@@ -25628,22 +25628,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D41" t="n">
-        <v>78.52652791832753</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G41" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H41" t="n">
-        <v>94.79428962526615</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I41" t="n">
         <v>205.0481221176458</v>
@@ -25685,10 +25685,10 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>84.51360120110039</v>
       </c>
       <c r="W41" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25725,7 +25725,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I42" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,22 +25752,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T42" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>50.17947915721973</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>119.5849977875773</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25862,19 +25862,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>89.11637806865212</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E44" t="n">
-        <v>138.6917128032271</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G44" t="n">
         <v>415.1619485273195</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>110.0814249536982</v>
+        <v>142.9992813870191</v>
       </c>
     </row>
     <row r="45">
@@ -25995,16 +25995,16 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T45" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>50.17947915721973</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>250.0405801293914</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6656840978772</v>
+        <v>140.0857793320303</v>
       </c>
       <c r="I46" t="n">
-        <v>153.551289182031</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>88.89425643449839</v>
@@ -26071,7 +26071,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S46" t="n">
-        <v>47.78481791206875</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T46" t="n">
         <v>227.6757534850358</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465368.9729778747</v>
+        <v>465368.9729778746</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778747</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778747</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>495176.2609070226</v>
+        <v>495176.2609070227</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>495176.2609070227</v>
+        <v>495176.2609070228</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>495176.2609070227</v>
+        <v>495176.2609070226</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>495176.2609070227</v>
+        <v>495176.2609070228</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>495176.2609070227</v>
+        <v>495176.2609070226</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>495176.2609070227</v>
+        <v>495176.2609070226</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>495176.2609070227</v>
+        <v>495176.2609070226</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>495176.2609070226</v>
+        <v>495176.2609070227</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26317,19 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
         <v>141745.4664845208</v>
       </c>
       <c r="F2" t="n">
+        <v>141745.4664845207</v>
+      </c>
+      <c r="G2" t="n">
+        <v>141745.4664845207</v>
+      </c>
+      <c r="H2" t="n">
         <v>141745.4664845208</v>
-      </c>
-      <c r="G2" t="n">
-        <v>141745.4664845208</v>
-      </c>
-      <c r="H2" t="n">
-        <v>141745.4664845207</v>
       </c>
       <c r="I2" t="n">
         <v>141745.4664845208</v>
@@ -26350,7 +26350,7 @@
         <v>141745.4664845208</v>
       </c>
       <c r="O2" t="n">
-        <v>141745.4664845207</v>
+        <v>141745.4664845208</v>
       </c>
       <c r="P2" t="n">
         <v>141745.4664845208</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923561</v>
+        <v>38628.88112923566</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213634</v>
+        <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="F4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="G4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="H4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="I4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="J4" t="n">
-        <v>19860.81663697799</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="K4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966587</v>
       </c>
       <c r="L4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="M4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="N4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="O4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="P4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678014</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>17553.77951678014</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="G5" t="n">
         <v>17553.77951678014</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15897.2471556765</v>
+        <v>-13036.85191122431</v>
       </c>
       <c r="C6" t="n">
-        <v>64872.18437587129</v>
+        <v>67732.57962032338</v>
       </c>
       <c r="D6" t="n">
-        <v>64872.18437587131</v>
+        <v>67732.57962032343</v>
       </c>
       <c r="E6" t="n">
-        <v>65701.98920152706</v>
+        <v>68570.95689883913</v>
       </c>
       <c r="F6" t="n">
-        <v>104330.8703307626</v>
+        <v>107199.8380280747</v>
       </c>
       <c r="G6" t="n">
-        <v>104330.8703307626</v>
+        <v>107199.8380280747</v>
       </c>
       <c r="H6" t="n">
-        <v>104330.8703307626</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="I6" t="n">
-        <v>104330.8703307626</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="J6" t="n">
-        <v>41270.92773165645</v>
+        <v>44139.89542896861</v>
       </c>
       <c r="K6" t="n">
-        <v>104330.8703307627</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="L6" t="n">
-        <v>104330.8703307627</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="M6" t="n">
-        <v>95573.28733554902</v>
+        <v>98442.25503286114</v>
       </c>
       <c r="N6" t="n">
-        <v>104330.8703307627</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="O6" t="n">
-        <v>104330.8703307626</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="P6" t="n">
-        <v>104330.8703307627</v>
+        <v>107199.8380280748</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="G3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912535</v>
       </c>
       <c r="H3" t="n">
         <v>35.02126071912532</v>
@@ -26771,10 +26771,10 @@
         <v>35.02126071912532</v>
       </c>
       <c r="N3" t="n">
+        <v>35.02126071912533</v>
+      </c>
+      <c r="O3" t="n">
         <v>35.02126071912532</v>
-      </c>
-      <c r="O3" t="n">
-        <v>35.02126071912533</v>
       </c>
       <c r="P3" t="n">
         <v>35.02126071912532</v>
@@ -26796,10 +26796,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G4" t="n">
         <v>276.1565137023554</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469637</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H12" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I13" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N13" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R13" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H14" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I14" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L14" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M14" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N14" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R14" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H15" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I15" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M15" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N15" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O15" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P15" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S15" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I16" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J16" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M16" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N16" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R16" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S16" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H17" t="n">
-        <v>1.441855221466299</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I17" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760122</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461253</v>
       </c>
       <c r="K17" t="n">
-        <v>17.90888720884597</v>
+        <v>17.908887208846</v>
       </c>
       <c r="L17" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M17" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677234</v>
       </c>
       <c r="N17" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O17" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081219</v>
       </c>
       <c r="P17" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R17" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870384</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847514</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626982</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132623</v>
       </c>
       <c r="H18" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520193</v>
       </c>
       <c r="I18" t="n">
-        <v>2.593555628727676</v>
+        <v>2.59355562872768</v>
       </c>
       <c r="J18" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779993</v>
       </c>
       <c r="K18" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L18" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M18" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N18" t="n">
-        <v>19.59175225833406</v>
+        <v>19.5917522583341</v>
       </c>
       <c r="O18" t="n">
-        <v>17.92262575689047</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P18" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164381</v>
       </c>
       <c r="R18" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263573</v>
       </c>
       <c r="S18" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.0631530931000621</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623708</v>
       </c>
       <c r="I19" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227323</v>
       </c>
       <c r="J19" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174391</v>
       </c>
       <c r="K19" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L19" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894689</v>
       </c>
       <c r="M19" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948824</v>
       </c>
       <c r="N19" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394056</v>
       </c>
       <c r="O19" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179691</v>
       </c>
       <c r="P19" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938417</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587928</v>
       </c>
       <c r="R19" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S19" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457198</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33889,16 +33889,16 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I38" t="n">
-        <v>5.427767452760118</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
-        <v>17.90888720884598</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L38" t="n">
-        <v>22.21755819470701</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M38" t="n">
         <v>24.72131435677232</v>
@@ -33916,16 +33916,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R38" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S38" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7275171330520186</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I39" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J39" t="n">
-        <v>7.116914878779988</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K39" t="n">
         <v>12.16394109335884</v>
@@ -33983,7 +33983,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N39" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O39" t="n">
         <v>17.92262575689049</v>
@@ -33992,19 +33992,19 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.615648792164373</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R39" t="n">
-        <v>4.676990252263568</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S39" t="n">
         <v>1.399198482504676</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3036277226497751</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,43 +34041,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5614884095623702</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I40" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J40" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K40" t="n">
-        <v>7.337241180170844</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L40" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M40" t="n">
-        <v>9.899534402948817</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N40" t="n">
-        <v>9.664145601394047</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O40" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P40" t="n">
-        <v>7.638079550938411</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.288210368587923</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R40" t="n">
-        <v>2.839592713390062</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S40" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T40" t="n">
         <v>0.2698359432457196</v>
@@ -34126,16 +34126,16 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I41" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L41" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M41" t="n">
         <v>24.72131435677232</v>
@@ -34153,16 +34153,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R41" t="n">
-        <v>8.843836255870379</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S41" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I42" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J42" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K42" t="n">
         <v>12.16394109335884</v>
@@ -34220,7 +34220,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N42" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O42" t="n">
         <v>17.92262575689049</v>
@@ -34229,19 +34229,19 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R42" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S42" t="n">
         <v>1.399198482504676</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,43 +34278,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I43" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J43" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K43" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L43" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M43" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N43" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O43" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P43" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R43" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S43" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T43" t="n">
         <v>0.2698359432457196</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L9" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35425,10 +35425,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522125</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315784</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>276.1565137023554</v>
+        <v>151.8955562274027</v>
       </c>
       <c r="N12" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>117.4131148590401</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.71116244199195</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M13" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35662,10 +35662,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P14" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7877391315784</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M15" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>210.4624139667339</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O15" t="n">
-        <v>269.1887005891755</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P15" t="n">
-        <v>198.8728484821095</v>
+        <v>160.6933770016707</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35808,19 +35808,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M16" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N16" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O16" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35899,10 +35899,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P17" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424833</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M18" t="n">
-        <v>276.1565137023554</v>
+        <v>100.6082676511395</v>
       </c>
       <c r="N18" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="O18" t="n">
-        <v>269.1887005891755</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P18" t="n">
-        <v>23.3246024308939</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721083</v>
       </c>
       <c r="M19" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N19" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O19" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P19" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831905</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>269.1887005891756</v>
       </c>
       <c r="P21" t="n">
-        <v>23.32460243089367</v>
+        <v>16.95427887837151</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>100.6082676511395</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L24" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O24" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P24" t="n">
-        <v>198.8728484821096</v>
+        <v>133.1787487464879</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>93.64045453795976</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L27" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M27" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>276.1565137023554</v>
+        <v>237.9770422219165</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P27" t="n">
         <v>198.8728484821096</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K30" t="n">
         <v>138.7877391315784</v>
@@ -36917,19 +36917,19 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N30" t="n">
-        <v>237.9770422219165</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O30" t="n">
-        <v>269.1887005891756</v>
+        <v>67.64407789397694</v>
       </c>
       <c r="P30" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>100.6082676511395</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>248.6418854471727</v>
+        <v>192.2553254360746</v>
       </c>
       <c r="M33" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O33" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P33" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L36" t="n">
         <v>248.6418854471727</v>
@@ -37394,13 +37394,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="N36" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>269.1887005891756</v>
+        <v>231.0092291087367</v>
       </c>
       <c r="P36" t="n">
-        <v>23.32460243089367</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>269.1887005891756</v>
       </c>
       <c r="P39" t="n">
-        <v>23.32460243089367</v>
+        <v>16.95427887837151</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P40" t="n">
-        <v>4.916638815831899</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.212927593424635</v>
+        <v>5.212927593424821</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L42" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M42" t="n">
-        <v>100.6082676511395</v>
+        <v>151.8955562274025</v>
       </c>
       <c r="N42" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>269.1887005891756</v>
@@ -37877,7 +37877,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P43" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831899</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
